--- a/Batals.xlsx
+++ b/Batals.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{4214C3BD-8F90-634A-8BDA-6C553CB5000F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BEB847F-DD23-6C47-8AD6-CEB371DF9AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>batal</t>
   </si>
@@ -100,6 +100,102 @@
   </si>
   <si>
     <t>ہنچو گوش انت کہ قیامت ءَ نفسا، نفسی بیت، نہ پِس زہگی بیت،‌ نہ زہگ پِسی ءُ ماسی، آروچ مروچی اوں گِندگ بُوہگ ءَ اَنت</t>
+  </si>
+  <si>
+    <t>اے زمانگ ءَ پہ مال ءَ بہائے کن انت سیال ءَ</t>
+  </si>
+  <si>
+    <t>اے ہنچیں زامانگے کہ براس براس ءَ پہ زرّ  ءُ مال ءَ کوشارینیت</t>
+  </si>
+  <si>
+    <t>وپتگیں مردم ءِ میش نرّکنت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اے شوانگ وپتگ انت شپ و روچ </t>
+  </si>
+  <si>
+    <t>چہ خدا ءِ رحمتاں ہچ بے سمامہ بو، کس نہ زانت کہ کجام واہداں کاینت</t>
+  </si>
+  <si>
+    <t>آپ ءِ سر ءَ ءُدرہچ ءِ بُن ءَ شپ ءَ ہڈمہ کن</t>
+  </si>
+  <si>
+    <t>آپ پہ دول کشگ بیت،  پہ چٹ کشگ نہ بیت، چٹ یکجا بیت بندگ بیت گڑا کشگ بیت</t>
+  </si>
+  <si>
+    <t>آپ پہ چِٹّ ءَ کشگ نہ بیت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کوٹ ءُ کلات مردانی ننگ ءُ نام اَنت </t>
+  </si>
+  <si>
+    <t>آہی ایں کوٹ و کلات، مرد ءِ چکّ انت و برات</t>
+  </si>
+  <si>
+    <t>آبادی پہ اپ سیالی پہ لاپ</t>
+  </si>
+  <si>
+    <t>آپ بیت ہئور ہَرّ گ بیت گڑا بہار ءُ آبادی بیت، بہار ءُ سبزگ بیت، گڑا ساہدار ءُ اولاک بیت</t>
+  </si>
+  <si>
+    <t>کسے ءَ کہ شرّی ءَ عادت کرتگ آوتی عادت ءَ  یلا نہ دنت، آپ کہ بیت نمبگ ءُ سبزگ بیت</t>
+  </si>
+  <si>
+    <t>آپ پہ تچگ ءَ دم نہ بارت</t>
+  </si>
+  <si>
+    <t>آپ پہ چمّگ سبزگ  پہ نمّگ (نمّبگ؟)</t>
+  </si>
+  <si>
+    <t>آپ ہماوہداں بیت کہ چمگ بیت، چمگ کہ بیت آپ بیت، اپ کہ بیت نمبگ ءُ سبزگ بیت</t>
+  </si>
+  <si>
+    <t>آپ پہ کور لاپ پہ غور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آپ ماں کور ءَ تچیت  پہ کورجوان اِنت </t>
+  </si>
+  <si>
+    <t>آپ پہ گیچن بُرت نہ بیت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آپ تچوکیں چیزے ءُ گیچن در کنوکیں چیزے، گیچن ٹُنگ ٹُنگ اِنت آئی ءَ آرت گیچگ بیت آپ برگ نہ بیت اگاں کسے گُوشیت ک پہ گیچن من آپ براں گڑا ناہوڈی نامے نہ اِنت </t>
+  </si>
+  <si>
+    <t>آپ سنگ ءَ چوڈینت نہ کنت</t>
+  </si>
+  <si>
+    <t>نیک ءُ  وژدل کسی دل ءَ آزار نہ کنت، آپ کہ تچیت وتی راہ ءَ شوہاز کنت، بلے نہ اُوشتیت</t>
+  </si>
+  <si>
+    <t>آپ ءِ سیل کن پدا ءَ مان دے</t>
+  </si>
+  <si>
+    <t>ہر کارءِ کنگ ءَ ساری بہ پہم، بسوچ گڑا کار ءَ بہ کن</t>
+  </si>
+  <si>
+    <t>آچ ءُ آپ گوں وت ءَ لوڈ نہ بنت۔</t>
+  </si>
+  <si>
+    <t>آچ ءِ کار اِنت سوچگ آپ ءِ کار اِنت آچ ءِ کُشگ ایشانی سیادی ءُ سنگتی بُوت نہ کنت</t>
+  </si>
+  <si>
+    <t>آچ ستر جوان انت پہ نپاد ءِ نہ برانت۔</t>
+  </si>
+  <si>
+    <t>آچ  سوچوکیں چیزے، آچ ءَ پہ داربرنت، نیکہ پہ نپاد ءُ چادر</t>
+  </si>
+  <si>
+    <t>آرت شیشگ ءَ جوڈ ینت نہ کنت</t>
+  </si>
+  <si>
+    <t>ناتوانیں مردم ءَ گوں ہچ  بوت نہ کنت، آرت چُشیں لچوکیں چیزے نہ اِنت کہ شیشگ ءَ جوڈ بہ دنت</t>
+  </si>
+  <si>
+    <t>آروس پہ آرتی، نِکہ پہ راستی۔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سانگ ءُ سور پہ آرت ءُ برنج ءُ روگن، پہ پسّ ءُگوشت، نہ کہ پہ گپّ جنگ ءُ راست گُوشگ </t>
   </si>
 </sst>
 </file>
@@ -467,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -597,14 +693,195 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Batals.xlsx
+++ b/Batals.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BEB847F-DD23-6C47-8AD6-CEB371DF9AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{3ACD477A-1848-D242-8624-9B5995778115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
   <si>
     <t>batal</t>
   </si>
@@ -196,6 +196,90 @@
   </si>
   <si>
     <t xml:space="preserve">سانگ ءُ سور پہ آرت ءُ برنج ءُ روگن، پہ پسّ ءُگوشت، نہ کہ پہ گپّ جنگ ءُ راست گُوشگ </t>
+  </si>
+  <si>
+    <t>بارگہ ءِ گرند ءُ چلگ ءِ گروگ۔</t>
+  </si>
+  <si>
+    <t>گرند ءُ جمبر کہ بیت گڑا ہئور الم بیت، ہئور کہ بیت بارگہ انت</t>
+  </si>
+  <si>
+    <t>بازارءَ سوداے کن انت  پٹاٹہ و پیماز، بہاے نہ کن انت غیرت و میار۔</t>
+  </si>
+  <si>
+    <t>غیرت ءُ لج ہنچیں چیزاَنت کہ پہ بہانہ اَنت</t>
+  </si>
+  <si>
+    <t>بان پہ بانک، مال پہ مالک۔</t>
+  </si>
+  <si>
+    <t>کمالی مرد آباد بیت مالدار بیت، بودیں جنین گس ءَ آباد کنت</t>
+  </si>
+  <si>
+    <t>بخت ءَ و عزت ءَ کپگ ءَ میل۔</t>
+  </si>
+  <si>
+    <t>روزی کہ کیت بسم الله کن، عزات ءَ بہ دار</t>
+  </si>
+  <si>
+    <t>بخت پہ دوچن زورت نہ بیت۔</t>
+  </si>
+  <si>
+    <t>بخت چہ انسان ءِ جوڑ بوہگ ءَ گوں آئی گون اِنت</t>
+  </si>
+  <si>
+    <t>بخت ءُ اقبال، نہ پہ اصل انت نہ پہ کمال۔</t>
+  </si>
+  <si>
+    <t>بخت پہ خدائی نیمگ ءَ، مال اؤں خدائی  نیمگ ءَ، کس دلرنج مہ بیت، کمال ءُ جمال نہ اِنت</t>
+  </si>
+  <si>
+    <t>بخت ہر مردم ءَ گون نہ بیت۔</t>
+  </si>
+  <si>
+    <t>عقل ہر کجاترا نصیب ءَ نہ بیت</t>
+  </si>
+  <si>
+    <t>بخت، پہ قسمت۔</t>
+  </si>
+  <si>
+    <t>کئی کہ بخت کجام وڑ اِنت آئی ءَ ہما رسیت</t>
+  </si>
+  <si>
+    <t>بختاور نہ بیت زہر آور۔</t>
+  </si>
+  <si>
+    <t>نیک ءُ پارسائیں مردم ءَ راپہ کسے ءَ حسد نئیت</t>
+  </si>
+  <si>
+    <t>بد عمل ءِ قسمت ٹَلی۔</t>
+  </si>
+  <si>
+    <t>کسے کہ خرابیں کار کنت، خراب سو چیت گڑا وشی نہ گندیت</t>
+  </si>
+  <si>
+    <t>بدیں مردم ءَ را نہ بیت ہمراہ</t>
+  </si>
+  <si>
+    <t>بدکار ءِ کسے نہ بیت دوستدار۔</t>
+  </si>
+  <si>
+    <t>بدعمل ءِ کاربے عمل بیت۔</t>
+  </si>
+  <si>
+    <t>بد عملیں انسان ءِ ہچیز ءِ تہا برکت نہ بیت</t>
+  </si>
+  <si>
+    <t>بدکار ءُ بدیں مردم کسی یارنہ بنت</t>
+  </si>
+  <si>
+    <t>بدکاری کسی یار نہ بیت۔</t>
+  </si>
+  <si>
+    <t>بدی، خیرنہ گندی۔</t>
+  </si>
+  <si>
+    <t>آکہ بدیں مردمے آخیر نہ گندی</t>
   </si>
 </sst>
 </file>
@@ -563,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -869,19 +953,173 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Batals.xlsx
+++ b/Batals.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{3ACD477A-1848-D242-8624-9B5995778115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{DAFAAF4C-4CF8-0945-B056-BB4EB192BEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="125">
   <si>
     <t>batal</t>
   </si>
@@ -90,9 +90,6 @@
     <t>اولی ایں سپت و سنا خدائی اِنت۔</t>
   </si>
   <si>
-    <t>اول ستا ءُ گلاہگ الله ئیگ اِنت کہ درئیں جہانانی مالک اِنت</t>
-  </si>
-  <si>
     <t>کار کن ئے، ہزمت کن ئے، ہرکسی کار ءَ گون بئے تراوت واجئی رسیت</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>بخت ءَ و عزت ءَ کپگ ءَ میل۔</t>
   </si>
   <si>
-    <t>روزی کہ کیت بسم الله کن، عزات ءَ بہ دار</t>
-  </si>
-  <si>
     <t>بخت پہ دوچن زورت نہ بیت۔</t>
   </si>
   <si>
@@ -280,6 +274,132 @@
   </si>
   <si>
     <t>آکہ بدیں مردمے آخیر نہ گندی</t>
+  </si>
+  <si>
+    <t>بدیں عادت نَرّو پہ نصیحت۔</t>
+  </si>
+  <si>
+    <t>بدیں عادت ہما خرابی اِنت کہ پہ نصیحت نہ روت</t>
+  </si>
+  <si>
+    <t>شرّ بئے کردار شرّ بنت گڑا براس ءُ دوست بیت</t>
+  </si>
+  <si>
+    <t>برادری، پہ بہتری۔</t>
+  </si>
+  <si>
+    <t>مال مال بیت روت، مال ءِ بدل کیت بلے براس ءِ بدل نئیت، پہ مالے ءَ براس ءَ دل آزار مہ کن براسی ءَ خراب مہ کن</t>
+  </si>
+  <si>
+    <t>براس ءَ پہ مالے ءَ کُنّت مہ کن۔</t>
+  </si>
+  <si>
+    <t>براس ءِ خذمت ءَ بے منت مہ کن۔</t>
+  </si>
+  <si>
+    <t>کسے کہ تئی کار ءَ کیت خذمت کنت گڑا منتوار ہب بو، ناشکرمہ بو</t>
+  </si>
+  <si>
+    <t>کسے ءَ را کہ براس گوہار اَست، بزاں ائی ءَ را جنت است، براس ءُ گوہار پُل بہار ءِ دروشم</t>
+  </si>
+  <si>
+    <t>براس ءُ گوہار پُل ءُ بہار۔</t>
+  </si>
+  <si>
+    <t>براس ہما بہ بیت کہ تپاک بہ بیت، براس پہ تپاکی وش اِنت ءُ دوست ہمابہ بیت کہ آئی تہا وفا بہ بیت</t>
+  </si>
+  <si>
+    <t>براس پہ سخا، دوست پہ وفا۔</t>
+  </si>
+  <si>
+    <t>مردم ہماوہداں براہ دنت کہ آئی باسک بزاں کوپگ بیت براس بیت، براسداری بیت</t>
+  </si>
+  <si>
+    <t>براس داری، براہ داری۔</t>
+  </si>
+  <si>
+    <t>براس ءَ پہ مالے ءَ ءُ دوست ءَ پہ گالے ءَ ناراض مہ کن۔</t>
+  </si>
+  <si>
+    <t>مال مال بیت روت، مال ءِ بدل کیت، بلے براس ءِ بدل نئیت، براس ءَ پہ مال ءَ دل تنگ مہ کن</t>
+  </si>
+  <si>
+    <t>اول ستا ءُ گلاہگ اللہ ئیگ اِنت کہ درئیں جہانانی مالک اِنت</t>
+  </si>
+  <si>
+    <t>روزی کہ کیت بسم اللہ کن، عزات ءَ بہ دار</t>
+  </si>
+  <si>
+    <t>براہ داریں گپ ءُ گال کلام اللہ اِنت۔</t>
+  </si>
+  <si>
+    <t>وشیں گپ ءُ  حبر قران ءِ کہ اللہ ئے گپ اَنت</t>
+  </si>
+  <si>
+    <t>براہ داریں ہمراہ براس ءُ گوہار اَنت۔</t>
+  </si>
+  <si>
+    <t>دردوار ءُ مہروان ءِ جوڑ ءِ براس ءُ گوہار اَنت</t>
+  </si>
+  <si>
+    <t>برکت پہ ہمت، دولت پہ قسمت۔</t>
+  </si>
+  <si>
+    <t>ہمت بیت دولت بیت، مال پہ قسمت اِنت</t>
+  </si>
+  <si>
+    <t>برہ داریں گپ مرد ءَ برہ دارکنت۔</t>
+  </si>
+  <si>
+    <t>شکّل ءُ شیریں گپّ مرد ءِ پجّار اِنت</t>
+  </si>
+  <si>
+    <t>بورہماجوان انت کہ دَور بزوری۔</t>
+  </si>
+  <si>
+    <t>بور ءِ کار مز نیں ریک ءُ سفراں روگ، بلے جوان ہما اِنت کہ سفر ءَ آسر بہ کنت ءُ دور بزوریت</t>
+  </si>
+  <si>
+    <t>بزسترباز بہ بیت لشکر نہ بیت۔</t>
+  </si>
+  <si>
+    <t>بُز ءِ بازی رمگ اِنت، آ لشکر نہ بیت، لشکر پہ مردم</t>
+  </si>
+  <si>
+    <t>بُزستر ٹوہ بیت پاکڈ وئے بر نہ کنت۔</t>
+  </si>
+  <si>
+    <t>بزستر بُز بہ بیت بلے اُشتر ءِ جاہ ءَ کارے نہ بنداں</t>
+  </si>
+  <si>
+    <t>بزلشکر ءِ سردار نہ بیت۔</t>
+  </si>
+  <si>
+    <t>لگور لشکر ءِ سردار بوت نہ کنت، دلیری، بہادری ءُ زانتکاری پکار اِنت</t>
+  </si>
+  <si>
+    <t>بلاپہ لٹّ نَٹلیت۔</t>
+  </si>
+  <si>
+    <t>بلاہ ءُ مصیبت پہ جاک ءُ کُوکار نہ ٹلنت، بلاہ پہ صدقہ ءُ خیرات ٹلنت</t>
+  </si>
+  <si>
+    <t>بلاہ چیریں چیزے پہ چارگ ءَ ودی نہ کنت</t>
+  </si>
+  <si>
+    <t>بلاپہ سیل ءَ دراے نہ بیت۔</t>
+  </si>
+  <si>
+    <t>مصیبت ءُ وبا ء کاینت آحال نہ دینت</t>
+  </si>
+  <si>
+    <t>بلا، نہ لوٹی کلہ۔</t>
+  </si>
+  <si>
+    <t>بلوچ ہما بہادر، میار جلّیں۔۔۔راج اِنت ایشی ءَ مہ گوش بدروچ</t>
+  </si>
+  <si>
+    <t>بلوچ ءَ مگو بد‌روچ۔</t>
   </si>
 </sst>
 </file>
@@ -647,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -671,7 +791,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -759,7 +879,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -767,10 +887,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
@@ -778,10 +898,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
@@ -789,10 +909,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -800,10 +920,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -811,10 +931,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
@@ -822,10 +942,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -833,10 +953,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
@@ -844,10 +964,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -855,10 +975,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
@@ -866,10 +986,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -877,10 +997,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
@@ -888,10 +1008,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -899,10 +1019,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>3</v>
@@ -910,10 +1030,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -921,10 +1041,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>3</v>
@@ -932,10 +1052,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -943,10 +1063,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
@@ -954,10 +1074,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
@@ -965,10 +1085,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
@@ -976,10 +1096,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -987,10 +1107,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>3</v>
@@ -998,10 +1118,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>3</v>
@@ -1009,10 +1129,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>3</v>
@@ -1020,10 +1140,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>3</v>
@@ -1031,10 +1151,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>3</v>
@@ -1042,10 +1162,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
@@ -1053,10 +1173,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>3</v>
@@ -1064,10 +1184,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>3</v>
@@ -1075,10 +1195,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>3</v>
@@ -1086,10 +1206,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>3</v>
@@ -1097,29 +1217,249 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="A43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="A44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Batals.xlsx
+++ b/Batals.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{DAFAAF4C-4CF8-0945-B056-BB4EB192BEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{35360BEA-363C-1541-82CC-7BAB1313435A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="145">
   <si>
     <t>batal</t>
   </si>
@@ -400,6 +400,66 @@
   </si>
   <si>
     <t>بلوچ ءَ مگو بد‌روچ۔</t>
+  </si>
+  <si>
+    <t>بور وکمیت پہ کاش ءِ چرگ ءَ نہ ٹہیت۔</t>
+  </si>
+  <si>
+    <t>کاش ہما بُرّناکیں کاہ ئے، کاش ءَ پہ کُڈّک ءُ پَل ءَ کارمز کناں، نیکہ پہ اولاک کدیم ءَ</t>
+  </si>
+  <si>
+    <t>بور ءِ نالاں بہ خچر ءَ بِر مہ جن۔</t>
+  </si>
+  <si>
+    <t>بور ءِ نال پہ بور ءَ اَنت، خچر ءَ بِراش نہ کناں</t>
+  </si>
+  <si>
+    <t>بہ جنگ ءَ بے دل مہ بو۔</t>
+  </si>
+  <si>
+    <t>جنگ ءِ تہا بزدلی تاوان دنت،‌ وتارا بے‌‌ دل‌ مہ کن</t>
+  </si>
+  <si>
+    <t>بہ چپ ءُ چوٹیں براس ءَ دل مہ بند۔</t>
+  </si>
+  <si>
+    <t>آ براس کہ دھو کہ باز اِنت، لالچی اِنت آئی پہ اوست مہ بند</t>
+  </si>
+  <si>
+    <t>بہ‌رہ ءِ سرا ءُ کَور ءِ گُور ءَ نپاد مہ کن۔</t>
+  </si>
+  <si>
+    <t>راہ ءُ کور ہنچیں جاہ اَنت کہ اود ءَ اڈّکنگی نہ اِنت</t>
+  </si>
+  <si>
+    <t>آدیوان ءَ پترلگّیت جیڑ ہانی تو جیل ءَ گڑا‌شور ءُ سلاہ بیت اُود ءَ بائدیں کوکار ءُ جاک مہ بیت، توجیل کنگ بہ بیت</t>
+  </si>
+  <si>
+    <t>بِہ سُہل ءُ سلہ ءِ نیام ءَ  غوغا مہ کن۔</t>
+  </si>
+  <si>
+    <t>بِہ صید ءُ شکار ءِ نیام ءَ ہاہا مہ کن۔</t>
+  </si>
+  <si>
+    <t>شکار ءَ کہ ردئے گڑا کوکار مہ کن، شکار پہ ہاموشی ءَ بیت</t>
+  </si>
+  <si>
+    <t>بہ ہرکار ءَ وبہ ہرمار ءَ ہلگر مہ کن۔</t>
+  </si>
+  <si>
+    <t>بزاں ہر کارے ءِ تہاوت جہد بہ کن چمدارمہ بو</t>
+  </si>
+  <si>
+    <t>بہارگہ پہ بہار، بہار پہ ڈگار۔</t>
+  </si>
+  <si>
+    <t>آپ ءُ ہئور بیت گڑا بہارگہ بیت، ڈگار پہ کِشت ءُ کشار</t>
+  </si>
+  <si>
+    <t>بیکارو فضول نہ خداوش انت نہ رسوُل ؐ۔</t>
+  </si>
+  <si>
+    <t>بے کار ءُ ناشریں مردم ءَ راکس دوست نہ داریت</t>
   </si>
 </sst>
 </file>
@@ -767,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1447,19 +1507,129 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="A62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="A63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="A64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Batals.xlsx
+++ b/Batals.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{35360BEA-363C-1541-82CC-7BAB1313435A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{766E6B3B-B92D-5840-A5BA-1BC44650C675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="184">
   <si>
     <t>batal</t>
   </si>
@@ -460,6 +460,126 @@
   </si>
   <si>
     <t>بے کار ءُ ناشریں مردم ءَ راکس دوست نہ داریت</t>
+  </si>
+  <si>
+    <t>مرد پہ کار ءُ جہد، نیکہ دستاں بہ بند بہ بوزان پہ زان</t>
+  </si>
+  <si>
+    <t>بیگار مہ بو، بیکار مہ بو۔</t>
+  </si>
+  <si>
+    <t>بیمار ءِ حال پُرسی خداءِ حال پُرسی اِنت، سواب اِنت، بیمار ءِ کرّا بیمار ءَ دلبڈی دیاں، آئی دل ءَ کمزور نہ کن انت</t>
+  </si>
+  <si>
+    <t>بیمار ءِ دل ءَ دور مہ دئے۔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کس نہ زانت کہ کجام وہد ءَ بیماری کاینت، آ چہ اللہ ءِ نیمگ ءَ </t>
+  </si>
+  <si>
+    <t>بیماری کسی انتظار ءَ نہ کنت۔</t>
+  </si>
+  <si>
+    <t>آ چیز کہ کسان اِنت چہ کسانی ءَ آئی سرا بِہ گر، بیماری بیت یا کہ زہگے بیت، دست ءَ کہ روت گڑا پشومانی کار نہ دنت</t>
+  </si>
+  <si>
+    <t>بیماری ءُ غم ءَ دیر مہ دار۔</t>
+  </si>
+  <si>
+    <t>بیماری ءُ کار کسی لحاظ ءَ نہ کنت۔</t>
+  </si>
+  <si>
+    <t>بیماری چہ خدائی نیمگ ءَ کاینت، کار چہ خدا بنت، اے کسی لحاظ ءَ نہ کن انت۔</t>
+  </si>
+  <si>
+    <t>ہمک کار ءِ سرا ہما وہد امءَ بہ گر</t>
+  </si>
+  <si>
+    <t>بیماری ءَ بے درمان مہ کن۔</t>
+  </si>
+  <si>
+    <t>کسے ءَ را کہ براس نیست بے وس، بے کس نا وس بیت، چنکس کہ مالدار بہ بئے، بلے بے براسی‌گران اِنت</t>
+  </si>
+  <si>
+    <t>بے براسی نا وسی، بے کسی، بے وسی۔</t>
+  </si>
+  <si>
+    <t>زہر ءُ ترندیں گپ دیوان ءَ حراب‌کنت</t>
+  </si>
+  <si>
+    <t>بےبراہ ایں گپ مجلس ءَ مرداکنت۔</t>
+  </si>
+  <si>
+    <t>بے ننگیں مردم ءَ راکسی غیرت نہ گیپت</t>
+  </si>
+  <si>
+    <t>بےپِس ءَ نہ پیرک داریت نہ پِس۔</t>
+  </si>
+  <si>
+    <t>ناتپاکی وت بربادی ے، کسے کہ  ناتپاک بوت گڑا آباد نہ بیت</t>
+  </si>
+  <si>
+    <t>بے تپاکی ہلاکی۔</t>
+  </si>
+  <si>
+    <t>جان دزّ ءُ جان بڈّ لنگڑ بیت</t>
+  </si>
+  <si>
+    <t>بے جان بے نان بیت۔</t>
+  </si>
+  <si>
+    <t>آکہ بے دین اِنت آئی رزق ءِ تہابرکت مان نہ بیت</t>
+  </si>
+  <si>
+    <t>بے دین ءِ رزق برکت نہ کنت۔</t>
+  </si>
+  <si>
+    <t>بے زرّ ءَ راگرّ اِنت ، کسّے وتی نہ کنت</t>
+  </si>
+  <si>
+    <t>بے زَرّی گَرّے۔</t>
+  </si>
+  <si>
+    <t>آ کہ بے سما اِنت، آئی ءَ را پہ گُشگ ءَ ہچ نہ بیت</t>
+  </si>
+  <si>
+    <t>بے سُد پہ پنت ءُ نصحیت ءَ سُد نہ کنت۔</t>
+  </si>
+  <si>
+    <t>آ شہر کہ گوں تئی تالہ ءَ نہ ٹئیت گڑا لَڈّ ءُ بار بہ کن</t>
+  </si>
+  <si>
+    <t>بے سریں شہر ءَ مہ نند۔</t>
+  </si>
+  <si>
+    <t>آ کار ءُ چیز کہ تاوان دینت آ یانی سر امہلہ بہ گر کہ تاوان دنت، آزہگے بہ بیت یا کہ نادراہی ے</t>
+  </si>
+  <si>
+    <t>بے سریں کار ءِ سر ءَ بہ گر۔</t>
+  </si>
+  <si>
+    <t>بے ننگ ءُ بے ضمیریں مردم ءَ نوکر مہ کن</t>
+  </si>
+  <si>
+    <t>بے سریں مرد ءَ نوکر مہ کن۔</t>
+  </si>
+  <si>
+    <t>جاہ ئے کہ روئے توشگ بہ زور، بے سلاح ءُ شور ءَ، بے سرپدی ءُ زانتکاری ءَ حبر مہ کن</t>
+  </si>
+  <si>
+    <t>بے سِلاح ءَ سپر مہ کن، بے صلاح ءَ حبر مہ کن۔</t>
+  </si>
+  <si>
+    <t>ہر چیز ءِ تہا انصاپ بہ بیت، بے تور ءَ تور مہ کن وتی قیامت ءَ کوار مہ کن</t>
+  </si>
+  <si>
+    <t>بے شاہیم ءَ تول نہ بیت۔</t>
+  </si>
+  <si>
+    <t>کول ءُ کرار گوں شوق ءَ بیت، گوں پہکیں مہر ءَ بیت</t>
+  </si>
+  <si>
+    <t>بے شوق ءَ کول نہ بیت۔</t>
   </si>
 </sst>
 </file>
@@ -827,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1617,19 +1737,244 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+      <c r="A72" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="A73" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+      <c r="A74" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Batals.xlsx
+++ b/Batals.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{766E6B3B-B92D-5840-A5BA-1BC44650C675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{7F046566-CEF9-894C-809A-5E16A436475A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="220">
   <si>
     <t>batal</t>
   </si>
@@ -580,6 +580,111 @@
   </si>
   <si>
     <t>بے شوق ءَ کول نہ بیت۔</t>
+  </si>
+  <si>
+    <t>بےعزّت ہر جاہ بے عزّت اِنت آنہ وتی عزّت ءَ زانت نیکہ دگرءِ</t>
+  </si>
+  <si>
+    <t>بے عزّت دگر ءَ بے عزّت کنت۔</t>
+  </si>
+  <si>
+    <t>کسے کہ کار نہ کنت، جہد نہ کنت بے بہر اِنت، پَشت کپیت</t>
+  </si>
+  <si>
+    <t>بےکاری، بے بہری۔</t>
+  </si>
+  <si>
+    <t>بےکاریں مردم ہچیز ءِتہانپ نہ گندیت</t>
+  </si>
+  <si>
+    <t>بےکاری، نَپَ نہ داری۔</t>
+  </si>
+  <si>
+    <t>بےکمال ءَ را ہچیز ءِ پرواہ نہ بیت</t>
+  </si>
+  <si>
+    <t>بےکمال نہ سیال گندیت نہ مال۔</t>
+  </si>
+  <si>
+    <t>اگاں کسے ترا لوٹیت دعوت کنت گڑا برو، بے لوٹگ ءَ وتارابے شرپ مہ کن</t>
+  </si>
+  <si>
+    <t>بےلوٹگ ءَ کسی نان ءَ مرو۔</t>
+  </si>
+  <si>
+    <t>بےمال مال نہ کٹیت۔</t>
+  </si>
+  <si>
+    <t>بے جوہر ءُ تاوان ہچ کرت نہ کنت گڑا مال ءَ کجا چہ کٹیت</t>
+  </si>
+  <si>
+    <t>بے مال ءَ را سیال نہ بیت۔</t>
+  </si>
+  <si>
+    <t>بے مال ءُ گریب ءَ کس وتی سیال نہ کنت، دنیا لالچی اِنت</t>
+  </si>
+  <si>
+    <t>بے مالی بدحالی۔</t>
+  </si>
+  <si>
+    <t>آئی ءَ کہ مال نہ بوت بزاں ہچ نہ بوت، بدحالی اِنت</t>
+  </si>
+  <si>
+    <t>مال کہ نہ بوت بدحال بئے</t>
+  </si>
+  <si>
+    <t>بے میاری پہ بلوچ ءَ نبرازی۔</t>
+  </si>
+  <si>
+    <t>بلوچ میار جلیں ننگ داریں راجے آئی واستہ بے میاری عیب اِنت</t>
+  </si>
+  <si>
+    <t>بے میار ءَ راپَیزنبی۔</t>
+  </si>
+  <si>
+    <t>بے لج ءُ ننگ ءِ درور آپ ءِ لکیر کشگ</t>
+  </si>
+  <si>
+    <t>بے ایمان بے نان بیت</t>
+  </si>
+  <si>
+    <t>بےنان بےایمان بیت۔</t>
+  </si>
+  <si>
+    <t>بے نمازی بے روزی، تنگ نمازی تنگ روزی۔</t>
+  </si>
+  <si>
+    <t>کسے ءِ تہا کہ دین نہ بیت، نماز نہ کنت گڑا آئی کِرّا‌ روزی نئیت تنگ بیت</t>
+  </si>
+  <si>
+    <t>بے واہگ ءِ ہمسائگ مہ بو۔</t>
+  </si>
+  <si>
+    <t>اَچ کسے ءَ چہ تماہ نہ گند ئے، واہشت نہ گند ئے وتارا بے شرف مہ کن پہ آئی مرہ، بے واہگیں مردم ءِ همسایگی اوں وش نہ اِنت</t>
+  </si>
+  <si>
+    <t>بے واہگ پہ گلِگ ءَ جوان نہ بیت۔</t>
+  </si>
+  <si>
+    <t>آکہ بے واہگ ءُ ناامیت اِنت آچ آئی ءَ گلِگ کنگ بے نپ اِنت</t>
+  </si>
+  <si>
+    <t>بے وفا نبی سپا۔</t>
+  </si>
+  <si>
+    <t>غدار ءُ دھوکہ باز، ہچبر نہ بنت پارسا</t>
+  </si>
+  <si>
+    <t>بے وفا نگندی نپ ءَ۔</t>
+  </si>
+  <si>
+    <t>آمردم کہ دغاباز اِنت بے وفا اِنت آ ہچبر سیت ءُ نپ نہ گندیت</t>
+  </si>
+  <si>
+    <t>بے ہمتی، بد قسمتی۔</t>
+  </si>
+  <si>
+    <t>کسے کہ جہد نہ کنت، ہمت نہ کنت گڑا شومی کجام بہ بیت</t>
   </si>
 </sst>
 </file>
@@ -947,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1957,24 +2062,222 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+      <c r="A92" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="A93" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+      <c r="A94" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+      <c r="A95" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Batals.xlsx
+++ b/Batals.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{7F046566-CEF9-894C-809A-5E16A436475A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Balochi-Batal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4A2E7F75-10AF-4DD9-90D2-BB5A3C1B493E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="233">
   <si>
     <t>batal</t>
   </si>
@@ -685,13 +677,55 @@
   </si>
   <si>
     <t>کسے کہ جہد نہ کنت، ہمت نہ کنت گڑا شومی کجام بہ بیت</t>
+  </si>
+  <si>
+    <t>پات پہ ہُرماگ۔</t>
+  </si>
+  <si>
+    <t>پات چہ داز ءِ پِیشّ ءَ جوڑ بیت، آئی تہا ہُرماگ مان کن انت، بزاں ہرماگ کہ بیت گڑا پات جوڑ کن انت، گوستگیں زمانگ ءَ پیریناں پات گوپتگ ہرماگ مان کرتگ، اے نوکیں نسل اول ءُ پات ءَ نہ زانت، اگاں زانت ءِ گڑا آئی گوپگ ءَ نہ زانت، پر چا کہ مرچاں ہرماگ ماں آرتی ءُ شکر ءِ پلاسڑک ءُ ڈبّہ آنی تہا مان کنگ بوہگ ءَ اَنت پات نیست، بُوت کنت جاہے جاہے پات بہ بیت</t>
+  </si>
+  <si>
+    <t>پازَوار، پہ پادَگ۔</t>
+  </si>
+  <si>
+    <t>پادَگ کہ بیت گڑا ہر چیز کرت کن ئے، پاد ءَ کرت کن ئے، جاہے شُت کن ئے</t>
+  </si>
+  <si>
+    <t>پاگ ستر لینگڑے بہ بیت پِرپُر ءَ نہ روپنت۔</t>
+  </si>
+  <si>
+    <t>پاگ بلوچ ءِ پجّار ءُ ننگ اِنت، بگند ئے کُوہن بہ بیت بلے روپگ ءِ جاہ کارمرز ئےنہ کناں</t>
+  </si>
+  <si>
+    <t>پاگ ءَ  بہ کوش ءِ سرا، کوش ءَ بہ پاگ ءِ سر ءَ ایر مہ کن۔</t>
+  </si>
+  <si>
+    <t>پاگ سر ءَ کنگی چیزے، کوش پاد ءَ کنگی چیزے، ہر چیز وتی جاہ ءَ</t>
+  </si>
+  <si>
+    <t>پتنوس بے پوش ءَ برہ نہ دنت۔</t>
+  </si>
+  <si>
+    <t>پتنوش یا ترشت بے پل ءُ شوشنگ ءَ بے براہ اِنت، آئی جلوہی گوں رنگ ءُ پوش ءَ اِنت، ہمے پیم ءَ بے عزت ءُ بےننگیں مردم</t>
+  </si>
+  <si>
+    <t>پُورت ءُ چپرتی مردم ءَ رابے شرپ کنت</t>
+  </si>
+  <si>
+    <t>پدکپوک سروگ نہ بیت۔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پخر ءُ گوات مرد ءَ جہل کنت۔ </t>
+  </si>
+  <si>
+    <t>بے جوہر ءُ نابود پشت کپ انت سروگی کرت نہ کناں</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -700,9 +734,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="26"/>
       <color indexed="9"/>
-      <name val="Calibri"/>
+      <name val="Balochi Nastalik"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color indexed="8"/>
+      <name val="Balochi Nastalik"/>
     </font>
   </fonts>
   <fills count="3">
@@ -730,12 +769,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1052,15 +1095,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="93.85546875" defaultRowHeight="84.75" customHeight="1" x14ac:dyDescent="1.25"/>
+  <cols>
+    <col min="1" max="16384" width="93.85546875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,1215 +1117,1273 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="C25" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="C26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="C27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="C28" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="C29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="C30" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="C31" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="C32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="C33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="C34" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="C35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="C36" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="C37" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="C38" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="C39" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="C40" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="C41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="C42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A43" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="C43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A44" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="C44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A45" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="C45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="C46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A47" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="C47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A48" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="C48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A49" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="C49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="C50" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="C51" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A52" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="C52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A53" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="C53" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A54" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="C54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A55" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="C55" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A56" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="C56" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A57" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="C57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A58" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="C58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A59" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="C59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A60" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="C60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A61" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="C61" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A62" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="C62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A63" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="C63" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A64" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="C64" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A65" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="C65" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A66" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="C66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A67" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+      <c r="C67" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A68" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+      <c r="C68" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A69" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+      <c r="C69" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A70" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="C70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A71" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+      <c r="C71" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A72" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="C72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A73" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+      <c r="C73" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A74" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+      <c r="C74" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A75" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+      <c r="C75" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A76" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+      <c r="C76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A77" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+      <c r="C77" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A78" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+      <c r="C78" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A79" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="C79" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A80" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+      <c r="C80" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A81" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+      <c r="C81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A82" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+      <c r="C82" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A83" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+      <c r="C83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A84" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+      <c r="C84" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A85" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+      <c r="C85" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A86" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+      <c r="C86" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A87" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+      <c r="C87" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A88" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+      <c r="C88" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A89" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+      <c r="C89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A90" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+      <c r="C90" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A91" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+      <c r="C91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A92" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+      <c r="C92" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A93" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+      <c r="C93" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A94" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+      <c r="C94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A95" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+      <c r="C95" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A96" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+      <c r="C96" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A97" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+      <c r="C97" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A98" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+      <c r="C98" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A99" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+      <c r="C99" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A100" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+      <c r="C100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A101" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+      <c r="C101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A102" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+      <c r="C102" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A103" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
+      <c r="C103" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A104" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
+      <c r="C104" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A105" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
+      <c r="C105" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A106" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
+      <c r="C106" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A107" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
+      <c r="C107" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A108" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
+      <c r="C108" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A109" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
+      <c r="C109" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A110" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A111" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A112" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A113" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A114" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A115" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+      <c r="A116" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Batals.xlsx
+++ b/Batals.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Balochi-Batal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4A2E7F75-10AF-4DD9-90D2-BB5A3C1B493E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{664631C5-BEA0-414D-BD91-2900FA19A1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="248">
   <si>
     <t>batal</t>
   </si>
@@ -719,6 +732,48 @@
   </si>
   <si>
     <t>بے جوہر ءُ نابود پشت کپ انت سروگی کرت نہ کناں</t>
+  </si>
+  <si>
+    <t>پدگروک نام نہ کَٹیت۔</t>
+  </si>
+  <si>
+    <t>بے زانت ءُ پشت کپوک بے نام بنت نام نہ کٹ انت</t>
+  </si>
+  <si>
+    <t>پدگِروک، پداکپیت۔</t>
+  </si>
+  <si>
+    <t>آ کہ لالچ ءُ ضدّکنت گڑا پَشت کپیت دیم ءَ نہ روت</t>
+  </si>
+  <si>
+    <t>پد، پہ پد بین۔</t>
+  </si>
+  <si>
+    <t>کسے ءِ پُشت درد پُشت کجام وڑا بو تگاں آباد یا بزگ، گڑا آہانی آؤکیں نسل ہما وڑ بنت دانکہ چنکس پُشت بہ رؤت</t>
+  </si>
+  <si>
+    <t>پرشتگیں کمان کار نہ دنت۔</t>
+  </si>
+  <si>
+    <t>آ کہ بے جوہر ءُ بے کار اِنت آکار‌‌ ءَ نئیت</t>
+  </si>
+  <si>
+    <t>پڑوکیں جَن شہ جِنّ ءَ گندہ ترانت۔</t>
+  </si>
+  <si>
+    <t>آ جَن کہ فسادی اِنت دغا اِنت چہ آجن ءَ بے جَنی گہتر اِنت</t>
+  </si>
+  <si>
+    <t>پزّوری، شہ زوری۔</t>
+  </si>
+  <si>
+    <t>جوان ءُ بلد بئے گڑا پزّور بئے، زوراک بئے</t>
+  </si>
+  <si>
+    <t>پزُوُل ہرچ ءِ دولت و بدپہریز ءِ صحت نہ مانیت۔</t>
+  </si>
+  <si>
+    <t>بے پروائی پکیر کنت، ہما کہ دپ نہ پہلیت نادرہ بیت</t>
   </si>
 </sst>
 </file>
@@ -1095,18 +1150,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="B112" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="93.85546875" defaultRowHeight="84.75" customHeight="1" x14ac:dyDescent="1.25"/>
+  <sheetFormatPr defaultColWidth="93.89453125" defaultRowHeight="84.75" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="93.85546875" style="2"/>
+    <col min="1" max="16384" width="93.89453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="1" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="2" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1128,7 +1183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="3" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1139,7 +1194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="4" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1150,7 +1205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="5" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1161,7 +1216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="6" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1172,7 +1227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="7" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1183,7 +1238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="8" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1194,7 +1249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="9" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1205,7 +1260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="10" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1216,7 +1271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="11" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1227,7 +1282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="12" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -1238,7 +1293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="13" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -1249,7 +1304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="14" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -1260,7 +1315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="15" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -1271,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="16" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -1282,7 +1337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="17" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -1293,7 +1348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="18" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -1304,7 +1359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="19" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -1315,7 +1370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="20" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
@@ -1326,7 +1381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="21" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -1337,7 +1392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="22" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>43</v>
       </c>
@@ -1348,7 +1403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="23" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
@@ -1359,7 +1414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="24" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
@@ -1370,7 +1425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="25" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -1381,7 +1436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="26" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
@@ -1392,7 +1447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="27" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
@@ -1403,7 +1458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="28" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
@@ -1414,7 +1469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="29" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
@@ -1425,7 +1480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="30" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>59</v>
       </c>
@@ -1436,7 +1491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="31" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>61</v>
       </c>
@@ -1447,7 +1502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="32" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
@@ -1458,7 +1513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="33" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
@@ -1469,7 +1524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="34" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
@@ -1480,7 +1535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="35" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
@@ -1491,7 +1546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="36" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>70</v>
       </c>
@@ -1502,7 +1557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="37" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>72</v>
       </c>
@@ -1513,7 +1568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="38" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>75</v>
       </c>
@@ -1524,7 +1579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="39" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
@@ -1535,7 +1590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="40" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>79</v>
       </c>
@@ -1546,7 +1601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="41" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
@@ -1557,7 +1612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="42" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>82</v>
       </c>
@@ -1568,7 +1623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="43" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>85</v>
       </c>
@@ -1579,7 +1634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="44" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>87</v>
       </c>
@@ -1590,7 +1645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="45" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>88</v>
       </c>
@@ -1601,7 +1656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="46" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>91</v>
       </c>
@@ -1612,7 +1667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="47" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>93</v>
       </c>
@@ -1623,7 +1678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="48" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>95</v>
       </c>
@@ -1634,7 +1689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="49" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>96</v>
       </c>
@@ -1645,7 +1700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="50" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>100</v>
       </c>
@@ -1656,7 +1711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="51" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>102</v>
       </c>
@@ -1667,7 +1722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="52" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>104</v>
       </c>
@@ -1678,7 +1733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="53" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>106</v>
       </c>
@@ -1689,7 +1744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="54" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>108</v>
       </c>
@@ -1700,7 +1755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="55" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>110</v>
       </c>
@@ -1711,7 +1766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="56" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>112</v>
       </c>
@@ -1722,7 +1777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="57" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>114</v>
       </c>
@@ -1733,7 +1788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="58" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>116</v>
       </c>
@@ -1744,7 +1799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="59" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>119</v>
       </c>
@@ -1755,7 +1810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="60" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>121</v>
       </c>
@@ -1766,7 +1821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="61" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>123</v>
       </c>
@@ -1777,7 +1832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="62" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>124</v>
       </c>
@@ -1788,7 +1843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="63" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>126</v>
       </c>
@@ -1799,7 +1854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="64" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>128</v>
       </c>
@@ -1810,7 +1865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="65" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>130</v>
       </c>
@@ -1821,7 +1876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="66" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>132</v>
       </c>
@@ -1832,7 +1887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="67" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>135</v>
       </c>
@@ -1843,7 +1898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="68" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>136</v>
       </c>
@@ -1854,7 +1909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="69" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>138</v>
       </c>
@@ -1865,7 +1920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="70" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>140</v>
       </c>
@@ -1876,7 +1931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="71" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>142</v>
       </c>
@@ -1887,7 +1942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="72" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>145</v>
       </c>
@@ -1898,7 +1953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="73" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>147</v>
       </c>
@@ -1909,7 +1964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="74" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>149</v>
       </c>
@@ -1920,7 +1975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="75" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>151</v>
       </c>
@@ -1931,7 +1986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="76" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>152</v>
       </c>
@@ -1942,7 +1997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="77" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>155</v>
       </c>
@@ -1953,7 +2008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="78" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>157</v>
       </c>
@@ -1964,7 +2019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="79" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>159</v>
       </c>
@@ -1975,7 +2030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="80" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>161</v>
       </c>
@@ -1986,7 +2041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="81" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>163</v>
       </c>
@@ -1997,7 +2052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="82" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>165</v>
       </c>
@@ -2008,7 +2063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="83" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>167</v>
       </c>
@@ -2019,7 +2074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="84" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>169</v>
       </c>
@@ -2030,7 +2085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="85" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>171</v>
       </c>
@@ -2041,7 +2096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="86" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>173</v>
       </c>
@@ -2052,7 +2107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="87" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>175</v>
       </c>
@@ -2063,7 +2118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="88" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>177</v>
       </c>
@@ -2074,7 +2129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="89" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>179</v>
       </c>
@@ -2085,7 +2140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="90" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>181</v>
       </c>
@@ -2096,7 +2151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="91" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>183</v>
       </c>
@@ -2107,7 +2162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="92" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>185</v>
       </c>
@@ -2118,7 +2173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="93" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>187</v>
       </c>
@@ -2129,7 +2184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="94" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>189</v>
       </c>
@@ -2140,7 +2195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="95" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>191</v>
       </c>
@@ -2151,7 +2206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="96" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>193</v>
       </c>
@@ -2162,7 +2217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="97" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>194</v>
       </c>
@@ -2173,7 +2228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="98" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>196</v>
       </c>
@@ -2184,7 +2239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="99" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>198</v>
       </c>
@@ -2195,7 +2250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="100" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>198</v>
       </c>
@@ -2206,7 +2261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="101" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>201</v>
       </c>
@@ -2217,7 +2272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="102" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>203</v>
       </c>
@@ -2228,7 +2283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="103" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>206</v>
       </c>
@@ -2239,7 +2294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="104" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>207</v>
       </c>
@@ -2250,7 +2305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="105" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>209</v>
       </c>
@@ -2261,7 +2316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="106" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>211</v>
       </c>
@@ -2272,7 +2327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="107" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>213</v>
       </c>
@@ -2283,7 +2338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="108" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>215</v>
       </c>
@@ -2294,7 +2349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="109" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>217</v>
       </c>
@@ -2305,7 +2360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="110" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>219</v>
       </c>
@@ -2316,7 +2371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="111" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>221</v>
       </c>
@@ -2327,7 +2382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="112" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>223</v>
       </c>
@@ -2338,7 +2393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="113" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>225</v>
       </c>
@@ -2349,7 +2404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="114" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>227</v>
       </c>
@@ -2360,7 +2415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="115" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>231</v>
       </c>
@@ -2371,7 +2426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="116" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="4" t="s">
         <v>230</v>
       </c>
@@ -2379,6 +2434,83 @@
         <v>232</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A121" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A122" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>3</v>
       </c>
     </row>
